--- a/Куделин/Солнечная энергетика/Solar NorthAmerica Mexico.xlsx
+++ b/Куделин/Солнечная энергетика/Solar NorthAmerica Mexico.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>407.41849709176381</c:v>
+                  <c:v>0.30878536489608133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>498.90434395570634</c:v>
+                  <c:v>0.39430759917982539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>605.66400213821271</c:v>
+                  <c:v>0.50310155684475288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>726.91562643633938</c:v>
+                  <c:v>0.64119466246843571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>860.10014872267607</c:v>
+                  <c:v>0.81684387214994225</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1007.4794132787819</c:v>
+                  <c:v>1.0403564845954205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>21.763974462722835</c:v>
+                  <c:v>0.35168312457617756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.036141055741755</c:v>
+                  <c:v>1.3177641045248958</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.869409585009436</c:v>
+                  <c:v>3.5377817758824954</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.278259521088529</c:v>
+                  <c:v>10.63978721024472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.412363396979927</c:v>
+                  <c:v>17.010337097026373</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.276862146770583</c:v>
+                  <c:v>21.57641257519904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627554064"/>
-        <c:axId val="1627530128"/>
+        <c:axId val="-85358896"/>
+        <c:axId val="-85342576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627554064"/>
+        <c:axId val="-85358896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627530128"/>
+        <c:crossAx val="-85342576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627530128"/>
+        <c:axId val="-85342576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627554064"/>
+        <c:crossAx val="-85358896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1251.6149425365666</c:v>
+                  <c:v>4.0383807536625707</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.0909994378496</c:v>
+                  <c:v>5.3541811039557041</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1532.6747870532706</c:v>
+                  <c:v>6.9059790229593485</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.3863425636102</c:v>
+                  <c:v>9.1242500906530744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1793.9865725091177</c:v>
+                  <c:v>12.047271389524768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.4186624418019</c:v>
+                  <c:v>4.0667512173506815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1433.8087831687781</c:v>
+                  <c:v>5.4364511345342441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.2266759015999</c:v>
+                  <c:v>7.0885674295734935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.297205634258</c:v>
+                  <c:v>9.4902357604290888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1894.7516360660775</c:v>
+                  <c:v>12.723666431999185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627530672"/>
-        <c:axId val="1627531760"/>
+        <c:axId val="-85368144"/>
+        <c:axId val="-85362160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627530672"/>
+        <c:axId val="-85368144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627531760"/>
+        <c:crossAx val="-85362160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627531760"/>
+        <c:axId val="-85362160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627530672"/>
+        <c:crossAx val="-85368144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1282.6630547411698</c:v>
+                  <c:v>4.1384349749879537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1480.5718828869758</c:v>
+                  <c:v>5.6135963576117058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.1007633192305</c:v>
+                  <c:v>7.4482074553659059</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.0324518681668</c:v>
+                  <c:v>10.170974975225795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.1491216730174</c:v>
+                  <c:v>13.934601657285961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.0609243794984</c:v>
+                  <c:v>4.1397171314227679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.4029198085657</c:v>
+                  <c:v>5.6167444427845838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1654.5291930226656</c:v>
+                  <c:v>7.4546390843459012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.2170528332679</c:v>
+                  <c:v>10.183292368795739</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.4611924132378</c:v>
+                  <c:v>13.956834246140961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627532304"/>
-        <c:axId val="1627554608"/>
+        <c:axId val="-85353456"/>
+        <c:axId val="-85352912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627532304"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627554608"/>
+        <c:crossAx val="-85352912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627554608"/>
+        <c:axId val="-85352912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627532304"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>0.52331367847850285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>0.55323595442710227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>0.5456430955342495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>0.54176460922418679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>0.53860522751136797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>0.54193370675483377</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>0.60193000286135767</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>0.63233443976379211</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>0.64144379203756041</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>0.7213955956735002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>0.77490063361437367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>0.8554321290788035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>1.13041049862401</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>1.687062563699731</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>2.2119603942444148</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>3.299591976527668</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>5.3516192794852833</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>9.9868208262476745</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>17.644685379587791</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>31.557362626262631</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>42.523411641575898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>59.704800353535347</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>82.817820252525266</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>101.3167605050505</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>122.0178553535354</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>152.1574391919192</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>191.44436454545459</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>231.45889994425389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627535568"/>
-        <c:axId val="1627536112"/>
+        <c:axId val="-85348560"/>
+        <c:axId val="-85352368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627535568"/>
+        <c:axId val="-85348560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627536112"/>
+        <c:crossAx val="-85352368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627536112"/>
+        <c:axId val="-85352368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627535568"/>
+        <c:crossAx val="-85348560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799964320"/>
-        <c:axId val="1799974656"/>
+        <c:axId val="-85365968"/>
+        <c:axId val="-85357808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799964320"/>
+        <c:axId val="-85365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799974656"/>
+        <c:crossAx val="-85357808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799974656"/>
+        <c:axId val="-85357808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799964320"/>
+        <c:crossAx val="-85365968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799974112"/>
-        <c:axId val="1799948000"/>
+        <c:axId val="-85347472"/>
+        <c:axId val="-85356720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799974112"/>
+        <c:axId val="-85347472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799948000"/>
+        <c:crossAx val="-85356720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799948000"/>
+        <c:axId val="-85356720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799974112"/>
+        <c:crossAx val="-85347472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799958336"/>
-        <c:axId val="1799969216"/>
+        <c:axId val="-85351824"/>
+        <c:axId val="-85351280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799958336"/>
+        <c:axId val="-85351824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799969216"/>
+        <c:crossAx val="-85351280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799969216"/>
+        <c:axId val="-85351280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799958336"/>
+        <c:crossAx val="-85351824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12746,7 +12746,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12782,7 +12782,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12818,7 +12818,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12859,7 +12859,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12900,7 +12900,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12938,7 +12938,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12976,7 +12976,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13268,7 +13268,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:AF3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13475,88 +13475,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>0.52331367847850285</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>0.55323595442710227</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>0.5456430955342495</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>0.54176460922418679</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>0.53860522751136797</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>0.54193370675483377</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>0.60193000286135767</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>0.63233443976379211</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>0.64144379203756041</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>0.7213955956735002</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>0.77490063361437367</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>0.8554321290788035</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>1.13041049862401</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>1.687062563699731</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>2.2119603942444148</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>3.299591976527668</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>5.3516192794852833</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>9.9868208262476745</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>17.644685379587791</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>31.557362626262631</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>42.523411641575898</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>59.704800353535347</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>82.817820252525266</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>101.3167605050505</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>122.0178553535354</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>152.1574391919192</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>191.44436454545459</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>231.45889994425389</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14419,111 +14419,111 @@
       </c>
       <c r="F16">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.54636811447773126</v>
+        <v>1.2456611560612901E-3</v>
       </c>
       <c r="G16">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.71596012617251503</v>
+        <v>1.5125311488291004E-3</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>0.92930063029118815</v>
+        <v>1.790481815840554E-3</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1.2039000903688448</v>
+        <v>2.0802058891007356E-3</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.5557862694602815</v>
+        <v>2.3608720460870426E-3</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.0138301255071709</v>
+        <v>2.6211301335670742E-3</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>2.581037090310744</v>
+        <v>3.0029990523787646E-3</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>3.3163068916137042</v>
+        <v>3.2987900944084617E-3</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>4.2517635195437924</v>
+        <v>3.4581241905296909E-3</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>5.4486504337650672</v>
+        <v>3.8993638628104796E-3</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>6.9614570301774066</v>
+        <v>4.1979072236129657E-3</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>8.8713365161834243</v>
+        <v>4.6249358453998336E-3</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>11.286177548123824</v>
+        <v>6.0632123772269321E-3</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>14.2851894564907</v>
+        <v>8.3018074359858703E-3</v>
       </c>
       <c r="T16">
         <f t="shared" si="6"/>
-        <v>17.97840626428999</v>
+        <v>1.0341586245002763E-2</v>
       </c>
       <c r="U16">
         <f t="shared" si="6"/>
-        <v>22.661345312553806</v>
+        <v>1.3489331404892391E-2</v>
       </c>
       <c r="V16">
         <f t="shared" si="6"/>
-        <v>28.370569993658318</v>
+        <v>1.7770938427418864E-2</v>
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>35.295893270520175</v>
+        <v>2.3696434675374703E-2</v>
       </c>
       <c r="X16">
         <f t="shared" si="6"/>
-        <v>43.619780829115768</v>
+        <v>3.1017129389384383E-2</v>
       </c>
       <c r="Y16">
         <f t="shared" si="6"/>
-        <v>53.447368231145283</v>
+        <v>4.0577186177223036E-2</v>
       </c>
       <c r="Z16">
         <f t="shared" si="6"/>
-        <v>64.652556040214748</v>
+        <v>5.1855469656827906E-2</v>
       </c>
       <c r="AA16">
         <f t="shared" si="6"/>
-        <v>77.420513307779373</v>
+        <v>6.6579266648118515E-2</v>
       </c>
       <c r="AB16" s="43">
         <f t="shared" si="6"/>
-        <v>91.485846863942527</v>
+        <v>8.5522234283744072E-2</v>
       </c>
       <c r="AC16" s="44">
         <f t="shared" si="6"/>
-        <v>106.75965818250634</v>
+        <v>0.10879395766492754</v>
       </c>
       <c r="AD16" s="44">
         <f t="shared" si="6"/>
-        <v>121.25162429812664</v>
+        <v>0.13809310562368279</v>
       </c>
       <c r="AE16" s="44">
         <f t="shared" si="6"/>
-        <v>133.18452228633669</v>
+        <v>0.17564920968150657</v>
       </c>
       <c r="AF16" s="45">
         <f t="shared" si="6"/>
-        <v>147.3792645561058</v>
+        <v>0.22351261244547832</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14539,111 +14539,111 @@
       </c>
       <c r="F17" s="6">
         <f>E$3+F16</f>
-        <v>0.55136811447773126</v>
+        <v>6.2456611560612902E-3</v>
       </c>
       <c r="G17" s="6">
         <f>F17+G16</f>
-        <v>1.2673282406502464</v>
+        <v>7.7581923048903904E-3</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>2.1966288709414346</v>
+        <v>9.5486741207309444E-3</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>3.4005289613102794</v>
+        <v>1.162888000983168E-2</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>4.9563152307705609</v>
+        <v>1.3989752055918722E-2</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>6.9701453562777314</v>
+        <v>1.6610882189485796E-2</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>9.5511824465884754</v>
+        <v>1.9613881241864559E-2</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>12.86748933820218</v>
+        <v>2.2912671336273022E-2</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>17.119252857745973</v>
+        <v>2.6370795526802715E-2</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>22.56790329151104</v>
+        <v>3.0270159389613194E-2</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>29.529360321688447</v>
+        <v>3.4468066613226156E-2</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>38.40069683787187</v>
+        <v>3.9093002458625986E-2</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>49.686874385995694</v>
+        <v>4.5156214835852915E-2</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>63.972063842486392</v>
+        <v>5.3458022271838782E-2</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>81.950470106776379</v>
+        <v>6.3799608516841549E-2</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>104.61181541933018</v>
+        <v>7.728893992173394E-2</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>132.98238541298849</v>
+        <v>9.5059878349152804E-2</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>168.27827868350866</v>
+        <v>0.11875631302452751</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>211.89805951262443</v>
+        <v>0.14977344241391188</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>265.34542774376973</v>
+        <v>0.19035062859113491</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>329.99798378398447</v>
+        <v>0.24220609824796283</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>407.41849709176381</v>
+        <v>0.30878536489608133</v>
       </c>
       <c r="AB17" s="49">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>498.90434395570634</v>
+        <v>0.39430759917982539</v>
       </c>
       <c r="AC17" s="50">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>605.66400213821271</v>
+        <v>0.50310155684475288</v>
       </c>
       <c r="AD17" s="50">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>726.91562643633938</v>
+        <v>0.64119466246843571</v>
       </c>
       <c r="AE17" s="50">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>860.10014872267607</v>
+        <v>0.81684387214994225</v>
       </c>
       <c r="AF17" s="51">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1007.4794132787819</v>
+        <v>1.0403564845954205</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -14652,126 +14652,126 @@
       </c>
       <c r="B18" s="17">
         <f>AF17-$AF$3</f>
-        <v>988.20586282947738</v>
+        <v>-18.23319396470901</v>
       </c>
       <c r="C18" s="18">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>581.97387184882473</v>
+        <v>-17.355473218493984</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(F18:AA18)</f>
-        <v>462508.9643537848</v>
+        <v>0.78309718823276186</v>
       </c>
       <c r="F18">
         <f>(F3-F17)^2</f>
-        <v>0.29742638028899576</v>
+        <v>6.0349403597369522E-8</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>1.5909489306618458</v>
+        <v>3.091240180975783E-6</v>
       </c>
       <c r="H18">
         <f t="shared" si="32"/>
-        <v>4.7944745924602605</v>
+        <v>6.4957397736836518E-6</v>
       </c>
       <c r="I18">
         <f>(I3-I17)^2</f>
-        <v>11.516038811251622</v>
+        <v>2.1426530145419332E-5</v>
       </c>
       <c r="J18">
         <f t="shared" si="32"/>
-        <v>24.495721253537454</v>
+        <v>4.8856633803219998E-5</v>
       </c>
       <c r="K18">
         <f t="shared" si="32"/>
-        <v>48.471467961939581</v>
+        <v>7.4147292081203685E-5</v>
       </c>
       <c r="L18">
         <f t="shared" si="32"/>
-        <v>91.072331208874417</v>
+        <v>1.3488223750013348E-4</v>
       </c>
       <c r="M18">
         <f t="shared" si="32"/>
-        <v>165.36646603933556</v>
+        <v>2.2238776638369901E-4</v>
       </c>
       <c r="N18">
         <f t="shared" si="32"/>
-        <v>292.76075285600422</v>
+        <v>3.0174453723398918E-4</v>
       </c>
       <c r="O18">
         <f t="shared" si="32"/>
-        <v>508.90411771574765</v>
+        <v>4.5241968045955027E-4</v>
       </c>
       <c r="P18">
         <f t="shared" si="32"/>
-        <v>871.39263380167415</v>
+        <v>5.9868628378927243E-4</v>
       </c>
       <c r="Q18">
         <f t="shared" si="32"/>
-        <v>1473.9223860910608</v>
+        <v>9.0558879697486959E-4</v>
       </c>
       <c r="R18">
         <f t="shared" si="32"/>
-        <v>2466.8977460230471</v>
+        <v>6.8414757453929219E-4</v>
       </c>
       <c r="S18">
         <f t="shared" si="32"/>
-        <v>4088.9711898196606</v>
+        <v>7.0002694253711701E-4</v>
       </c>
       <c r="T18">
         <f t="shared" si="32"/>
-        <v>6710.7995825750277</v>
+        <v>1.0758143188580648E-3</v>
       </c>
       <c r="U18">
         <f t="shared" si="32"/>
-        <v>10935.055437463625</v>
+        <v>1.3168871606432152E-3</v>
       </c>
       <c r="V18">
         <f t="shared" si="32"/>
-        <v>17665.968021941626</v>
+        <v>6.7911725957264281E-4</v>
       </c>
       <c r="W18">
         <f t="shared" si="32"/>
-        <v>28281.915317603703</v>
+        <v>1.627235219797302E-4</v>
       </c>
       <c r="X18">
         <f t="shared" si="32"/>
-        <v>44807.177523911145</v>
+        <v>5.073222505564327E-3</v>
       </c>
       <c r="Y18">
         <f t="shared" si="32"/>
-        <v>70300.932544014926</v>
+        <v>1.4034836601083025E-4</v>
       </c>
       <c r="Z18">
         <f t="shared" si="32"/>
-        <v>108732.23172868407</v>
+        <v>1.0140515906395809E-4</v>
       </c>
       <c r="AA18">
         <f t="shared" si="32"/>
-        <v>165024.43049610511</v>
+        <v>0.77039370833626308</v>
       </c>
       <c r="AB18" s="43">
         <f t="shared" si="32"/>
-        <v>245711.18735794589</v>
+        <v>7.937756288147285</v>
       </c>
       <c r="AC18" s="44">
         <f t="shared" si="32"/>
-        <v>354858.11129956762</v>
+        <v>89.514654429101014</v>
       </c>
       <c r="AD18" s="44">
         <f t="shared" si="32"/>
-        <v>505634.77555350453</v>
+        <v>230.87056133782119</v>
       </c>
       <c r="AE18" s="44">
         <f t="shared" si="32"/>
-        <v>705440.81003379542</v>
+        <v>375.50944685532977</v>
       </c>
       <c r="AF18" s="45">
         <f t="shared" si="32"/>
-        <v>976550.82733055193</v>
+        <v>332.44936215470108</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14780,126 +14780,126 @@
       </c>
       <c r="B19" s="20">
         <f>(B18/$AF$3)*100</f>
-        <v>5127.2642548593903</v>
+        <v>-94.602154453421079</v>
       </c>
       <c r="C19" s="21">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>3217.628380663089</v>
+        <v>-95.955275466680177</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(F19:AA19)</f>
-        <v>1963.2710761288802</v>
+        <v>1.275893783558157</v>
       </c>
       <c r="F19">
         <f>SQRT(F18)</f>
-        <v>0.54536811447773126</v>
+        <v>2.4566115606129008E-4</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.2613282406502464</v>
+        <v>1.7581923048903903E-3</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.1896288709414344</v>
+        <v>2.5486741207309442E-3</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>3.3935289613102793</v>
+        <v>4.6288800098316799E-3</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>4.9493152307705612</v>
+        <v>6.989752055918722E-3</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>6.9621453562777313</v>
+        <v>8.6108821894857954E-3</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>9.5431824465884763</v>
+        <v>1.1613881241864559E-2</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>12.859489338202181</v>
+        <v>1.4912671336273022E-2</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>17.110252857745973</v>
+        <v>1.7370795526802714E-2</v>
       </c>
       <c r="O19">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>22.55890329151104</v>
+        <v>2.1270159389613193E-2</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>29.519360321688445</v>
+        <v>2.4468066613226154E-2</v>
       </c>
       <c r="Q19">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>38.391696837871869</v>
+        <v>3.0093002458625985E-2</v>
       </c>
       <c r="R19">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>49.667874385995695</v>
+        <v>2.6156214835852915E-2</v>
       </c>
       <c r="S19">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>63.945063842486391</v>
+        <v>2.6458022271838782E-2</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>81.919470106776373</v>
+        <v>3.279960851684155E-2</v>
       </c>
       <c r="U19">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>104.57081541933019</v>
+        <v>3.6288939921733938E-2</v>
       </c>
       <c r="V19">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>132.9133854129885</v>
+        <v>2.6059878349152799E-2</v>
       </c>
       <c r="W19">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>168.17227868350867</v>
+        <v>1.275631302452751E-2</v>
       </c>
       <c r="X19">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>211.67705951262442</v>
+        <v>7.1226557586088118E-2</v>
       </c>
       <c r="Y19">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>265.143230243608</v>
+        <v>1.184687157062278E-2</v>
       </c>
       <c r="Z19">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>329.74570767287338</v>
+        <v>1.0070012863147598E-2</v>
       </c>
       <c r="AA19">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>406.23199098065271</v>
+        <v>0.8777207462150266</v>
       </c>
       <c r="AB19" s="43">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>495.69263395570636</v>
+        <v>2.8174024008201748</v>
       </c>
       <c r="AC19" s="44">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>595.69968213821267</v>
+        <v>9.4612184431552482</v>
       </c>
       <c r="AD19" s="44">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>711.08000643633943</v>
+        <v>15.194425337531564</v>
       </c>
       <c r="AE19" s="44">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>839.90523872267602</v>
+        <v>19.378066127850058</v>
       </c>
       <c r="AF19" s="45">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>988.20586282947738</v>
+        <v>18.23319396470901</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15044,111 +15044,111 @@
       </c>
       <c r="F24">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.7703685602597448</v>
+        <v>1.0012721569638413E-3</v>
       </c>
       <c r="G24">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>4.8936284534138093</v>
+        <v>1.1686377877029724E-3</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.4471765872804951</v>
+        <v>1.3198740181403954E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="60"/>
-        <v>5.9150218479244483</v>
+        <v>1.3599910465272478E-3</v>
       </c>
       <c r="J24">
         <f t="shared" si="60"/>
-        <v>6.3965107607997993</v>
+        <v>1.4948744743458553E-3</v>
       </c>
       <c r="K24">
         <f t="shared" si="60"/>
-        <v>6.983327172080128</v>
+        <v>1.5446478747976947E-3</v>
       </c>
       <c r="L24">
         <f t="shared" si="60"/>
-        <v>7.4699032995999728</v>
+        <v>1.6488325601578425E-3</v>
       </c>
       <c r="M24">
         <f t="shared" si="60"/>
-        <v>8.0801782973349034</v>
+        <v>1.8434196064798878E-3</v>
       </c>
       <c r="N24">
         <f t="shared" si="60"/>
-        <v>8.7527972469166748</v>
+        <v>1.9098333237383537E-3</v>
       </c>
       <c r="O24">
         <f t="shared" si="60"/>
-        <v>9.5658719241607368</v>
+        <v>2.0346491557219105E-3</v>
       </c>
       <c r="P24">
         <f t="shared" si="60"/>
-        <v>10.413617447766212</v>
+        <v>2.2717781889422988E-3</v>
       </c>
       <c r="Q24">
         <f t="shared" si="60"/>
-        <v>11.293156963179985</v>
+        <v>2.4174451969958986E-3</v>
       </c>
       <c r="R24">
         <f t="shared" si="60"/>
-        <v>12.309002910956513</v>
+        <v>2.8629040959307337E-3</v>
       </c>
       <c r="S24">
         <f t="shared" si="60"/>
-        <v>13.131406527521843</v>
+        <v>3.1986348834760507E-3</v>
       </c>
       <c r="T24">
         <f t="shared" si="60"/>
-        <v>13.650671182160124</v>
+        <v>5.4026611121289984E-3</v>
       </c>
       <c r="U24">
         <f t="shared" si="60"/>
-        <v>14.923699779428919</v>
+        <v>8.0392104822749038E-3</v>
       </c>
       <c r="V24">
         <f t="shared" si="60"/>
-        <v>16.055256652019914</v>
+        <v>1.0815185633909607E-2</v>
       </c>
       <c r="W24">
         <f t="shared" si="60"/>
-        <v>17.112208877779047</v>
+        <v>1.6498533916242088E-2</v>
       </c>
       <c r="X24">
         <f t="shared" si="60"/>
-        <v>18.234705163964055</v>
+        <v>2.8400005757660666E-2</v>
       </c>
       <c r="Y24">
         <f t="shared" si="60"/>
-        <v>19.384643598908397</v>
+        <v>4.7909987028886832E-2</v>
       </c>
       <c r="Z24">
         <f t="shared" si="60"/>
-        <v>20.33709680577461</v>
+        <v>8.2542693523484256E-2</v>
       </c>
       <c r="AA24">
         <f t="shared" si="60"/>
-        <v>21.511698351611724</v>
+        <v>9.9407013465067112E-2</v>
       </c>
       <c r="AB24" s="43">
         <f t="shared" si="60"/>
-        <v>22.849634944630647</v>
+        <v>0.13125799341378794</v>
       </c>
       <c r="AC24" s="44">
         <f t="shared" si="60"/>
-        <v>24.657699585009436</v>
+        <v>0.32607177588249536</v>
       </c>
       <c r="AD24" s="44">
         <f t="shared" si="60"/>
-        <v>26.313939521088528</v>
+        <v>0.67546721024471801</v>
       </c>
       <c r="AE24" s="44">
         <f t="shared" si="60"/>
-        <v>28.576743396979928</v>
+        <v>1.1747170970263703</v>
       </c>
       <c r="AF24" s="45">
         <f t="shared" si="60"/>
-        <v>32.081952146770583</v>
+        <v>1.3815025751990393</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15164,111 +15164,111 @@
       </c>
       <c r="F25" s="6">
         <f>E$3+F24</f>
-        <v>3.7753685602597447</v>
+        <v>6.0012721569638414E-3</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>4.8996284534138095</v>
+        <v>7.1686377877029726E-3</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="61"/>
-        <v>5.4531765872804954</v>
+        <v>7.319874018140396E-3</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="61"/>
-        <v>5.922021847924448</v>
+        <v>8.359991046527248E-3</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="61"/>
-        <v>6.403510760799799</v>
+        <v>8.4948744743458555E-3</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="61"/>
-        <v>6.9903271720801277</v>
+        <v>8.5446478747976951E-3</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="61"/>
-        <v>7.4779032995999728</v>
+        <v>9.6488325601578433E-3</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="61"/>
-        <v>8.0881782973349026</v>
+        <v>9.843419606479888E-3</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="61"/>
-        <v>8.7607972469166739</v>
+        <v>9.9098333237383537E-3</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="61"/>
-        <v>9.5748719241607372</v>
+        <v>1.1034649155721912E-2</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="61"/>
-        <v>10.422617447766212</v>
+        <v>1.1271778188942299E-2</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="61"/>
-        <v>11.303156963179985</v>
+        <v>1.2417445196995898E-2</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="61"/>
-        <v>12.318002910956514</v>
+        <v>1.1862904095930734E-2</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="61"/>
-        <v>13.150406527521843</v>
+        <v>2.2198634883476051E-2</v>
       </c>
       <c r="T25" s="6">
         <f t="shared" si="61"/>
-        <v>13.677671182160124</v>
+        <v>3.2402661112129E-2</v>
       </c>
       <c r="U25" s="6">
         <f t="shared" si="61"/>
-        <v>14.954699779428919</v>
+        <v>3.9039210482274905E-2</v>
       </c>
       <c r="V25" s="6">
         <f t="shared" si="61"/>
-        <v>16.096256652019914</v>
+        <v>5.1815185633909605E-2</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="61"/>
-        <v>17.181208877779046</v>
+        <v>8.5498533916242098E-2</v>
       </c>
       <c r="X25" s="6">
         <f t="shared" si="61"/>
-        <v>18.340705163964056</v>
+        <v>0.13440000575766067</v>
       </c>
       <c r="Y25" s="6">
         <f t="shared" si="61"/>
-        <v>19.605643598908397</v>
+        <v>0.26890998702888685</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="61"/>
-        <v>20.53929430593637</v>
+        <v>0.28474019368524195</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>21.763974462722835</v>
+        <v>0.35168312457617756</v>
       </c>
       <c r="AB25" s="49">
         <f t="shared" si="61"/>
-        <v>24.036141055741755</v>
+        <v>1.3177641045248958</v>
       </c>
       <c r="AC25" s="50">
         <f t="shared" si="61"/>
-        <v>27.869409585009436</v>
+        <v>3.5377817758824954</v>
       </c>
       <c r="AD25" s="50">
         <f t="shared" si="61"/>
-        <v>36.278259521088529</v>
+        <v>10.63978721024472</v>
       </c>
       <c r="AE25" s="50">
         <f t="shared" si="61"/>
-        <v>44.412363396979927</v>
+        <v>17.010337097026373</v>
       </c>
       <c r="AF25" s="51">
         <f t="shared" si="61"/>
-        <v>52.276862146770583</v>
+        <v>21.57641257519904</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -15277,126 +15277,126 @@
       </c>
       <c r="B26" s="17">
         <f>AF25-$AF$3</f>
-        <v>33.003311697466152</v>
+        <v>2.3028621258946096</v>
       </c>
       <c r="C26" s="18">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>12.425843345854425</v>
+        <v>3.1376851124295406</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5">
         <f>SUM(F26:AA26)</f>
-        <v>3538.0292929800153</v>
+        <v>0.71075911145817561</v>
       </c>
       <c r="F26">
         <f>(F3-F25)^2</f>
-        <v>14.208139343074622</v>
+        <v>1.6183833406499372E-12</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>23.947599440061232</v>
+        <v>1.3657142788472977E-6</v>
       </c>
       <c r="H26">
         <f t="shared" si="62"/>
-        <v>29.660839419842226</v>
+        <v>1.0231938748128227E-7</v>
       </c>
       <c r="I26">
         <f t="shared" si="62"/>
-        <v>34.987483461423558</v>
+        <v>1.8495756466342788E-6</v>
       </c>
       <c r="J26">
         <f t="shared" si="62"/>
-        <v>40.915349913027626</v>
+        <v>2.2346496940507972E-6</v>
       </c>
       <c r="K26">
         <f t="shared" si="62"/>
-        <v>48.752892737968473</v>
+        <v>2.9664130752164552E-7</v>
       </c>
       <c r="L26">
         <f t="shared" si="62"/>
-        <v>55.799455305374558</v>
+        <v>2.7186488114366673E-6</v>
       </c>
       <c r="M26">
         <f t="shared" si="62"/>
-        <v>65.289281316721983</v>
+        <v>3.3981958455544644E-6</v>
       </c>
       <c r="N26">
         <f t="shared" si="62"/>
-        <v>76.593955051138266</v>
+        <v>8.2779667698477792E-7</v>
       </c>
       <c r="O26">
         <f t="shared" si="62"/>
-        <v>91.505905669446634</v>
+        <v>4.1397971868798838E-6</v>
       </c>
       <c r="P26">
         <f t="shared" si="62"/>
-        <v>108.42260211352536</v>
+        <v>1.6174197618693533E-6</v>
       </c>
       <c r="Q26">
         <f t="shared" si="62"/>
-        <v>127.55798150894694</v>
+        <v>1.1678931674470324E-5</v>
       </c>
       <c r="R26">
         <f t="shared" si="62"/>
-        <v>151.2654726037168</v>
+        <v>5.0938137943882282E-5</v>
       </c>
       <c r="S26">
         <f t="shared" si="62"/>
-        <v>172.22379888660294</v>
+        <v>2.305310698217303E-5</v>
       </c>
       <c r="T26">
         <f t="shared" si="62"/>
-        <v>186.23163435399957</v>
+        <v>1.9674581954789631E-6</v>
       </c>
       <c r="U26">
         <f t="shared" si="62"/>
-        <v>222.41844111093818</v>
+        <v>3.8446955328206158E-6</v>
       </c>
       <c r="V26">
         <f t="shared" si="62"/>
-        <v>256.87295578971663</v>
+        <v>2.95317844796987E-4</v>
       </c>
       <c r="W26">
         <f t="shared" si="62"/>
-        <v>291.56275821978426</v>
+        <v>4.2031011158347544E-4</v>
       </c>
       <c r="X26">
         <f t="shared" si="62"/>
-        <v>328.32371522898569</v>
+        <v>7.4995590027732047E-3</v>
       </c>
       <c r="Y26">
         <f t="shared" si="62"/>
-        <v>376.49372050696616</v>
+        <v>4.450555903996881E-3</v>
       </c>
       <c r="Z26">
         <f t="shared" si="62"/>
-        <v>411.56310723717104</v>
+        <v>1.0539166573800302E-3</v>
       </c>
       <c r="AA26">
         <f t="shared" si="62"/>
-        <v>423.43220376158229</v>
+        <v>0.69692941884710058</v>
       </c>
       <c r="AB26" s="43">
         <f t="shared" si="62"/>
-        <v>433.65692879534168</v>
+        <v>3.5870310549869946</v>
       </c>
       <c r="AC26" s="44">
         <f t="shared" si="62"/>
-        <v>320.59223304721331</v>
+        <v>41.300393546043388</v>
       </c>
       <c r="AD26" s="44">
         <f t="shared" si="62"/>
-        <v>417.9015105891707</v>
+        <v>26.996678379096146</v>
       </c>
       <c r="AE26" s="44">
         <f t="shared" si="62"/>
-        <v>586.48504903489459</v>
+        <v>10.141504574353878</v>
       </c>
       <c r="AF26" s="45">
         <f t="shared" si="62"/>
-        <v>1089.2185830001063</v>
+        <v>5.3031739708798407</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15405,126 +15405,126 @@
       </c>
       <c r="B27" s="20">
         <f>(B26/$AF$3)*100</f>
-        <v>171.23628458739537</v>
+        <v>11.948302581570893</v>
       </c>
       <c r="C27" s="21">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>68.700242635086155</v>
+        <v>17.347694038676511</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="5">
         <f>SUM(F27:AA27)</f>
-        <v>254.45044229973092</v>
+        <v>1.0896029977093402</v>
       </c>
       <c r="F27">
         <f>SQRT(F26)</f>
-        <v>3.7693685602597449</v>
+        <v>1.2721569638413088E-6</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>4.8936284534138093</v>
+        <v>1.1686377877029724E-3</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.4461765872804957</v>
+        <v>3.1987401814039581E-4</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>5.9150218479244483</v>
+        <v>1.3599910465272478E-3</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.3965107607997993</v>
+        <v>1.4948744743458553E-3</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>6.9823271720801277</v>
+        <v>5.4464787479769489E-4</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.4699032995999728</v>
+        <v>1.6488325601578431E-3</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>8.0801782973349034</v>
+        <v>1.8434196064798878E-3</v>
       </c>
       <c r="N27">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.7517972469166736</v>
+        <v>9.0983332373835261E-4</v>
       </c>
       <c r="O27">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>9.5658719241607368</v>
+        <v>2.0346491557219105E-3</v>
       </c>
       <c r="P27">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>10.412617447766213</v>
+        <v>1.2717781889422988E-3</v>
       </c>
       <c r="Q27">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>11.294156963179985</v>
+        <v>3.4174451969958969E-3</v>
       </c>
       <c r="R27">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>12.299002910956514</v>
+        <v>7.1370959040692652E-3</v>
       </c>
       <c r="S27">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>13.123406527521844</v>
+        <v>4.8013651165239486E-3</v>
       </c>
       <c r="T27">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>13.646671182160123</v>
+        <v>1.402661112129E-3</v>
       </c>
       <c r="U27">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>14.913699779428919</v>
+        <v>1.9607895177250964E-3</v>
       </c>
       <c r="V27">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>16.027256652019915</v>
+        <v>1.7184814366090401E-2</v>
       </c>
       <c r="W27">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>17.075208877779044</v>
+        <v>2.0501466083757899E-2</v>
       </c>
       <c r="X27">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>18.119705163964056</v>
+        <v>8.6599994242339329E-2</v>
       </c>
       <c r="Y27">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>19.403446098746638</v>
+        <v>6.6712486867129162E-2</v>
       </c>
       <c r="Z27">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>20.287018194825258</v>
+        <v>3.2464082574131525E-2</v>
       </c>
       <c r="AA27">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>20.577468351611728</v>
+        <v>0.83482298653493037</v>
       </c>
       <c r="AB27" s="43">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>20.824431055741755</v>
+        <v>1.8939458954751043</v>
       </c>
       <c r="AC27" s="44">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>17.905089585009435</v>
+        <v>6.4265382241175057</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>20.44263952108853</v>
+        <v>5.195832789755281</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>24.217453396979927</v>
+        <v>3.1845729029736276</v>
       </c>
       <c r="AF27" s="45">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>33.003311697466152</v>
+        <v>2.3028621258946096</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16242,107 +16242,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>1.2992782241229902E-4</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.767655493628336</v>
+        <v>1.2635134697789024E-4</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>1.6178965942988122E-4</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>2.0255451830705155E-4</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003934</v>
+        <v>2.6694398484313452E-4</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>5.0231659553306909E-4</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>5.6073442716471963E-4</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819007</v>
+        <v>6.2417141033931089E-4</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>1.1858242372256335E-3</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905581</v>
+        <v>1.3783429331441811E-3</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>2.0052316431753564E-3</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>4.6872976406505916E-3</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511872999</v>
+        <v>1.0020816670599172E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>1.3044044290651646E-2</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>2.7832163929457497E-2</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>5.8388478683538733E-2</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404447</v>
+        <v>0.14457189268648299</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>0.27876708478409717</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>0.56973884320764356</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>0.58003446350057009</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.9225529118911</v>
+        <v>0.95341686439544637</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>1.3853449338042081</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>1.3158003502931335</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>1.5517979190036444</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>2.2182710676937258</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>2.9230212988716939</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16358,111 +16358,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>9.9697167305578613</v>
+        <v>5.3896814906722124E-3</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>12.963574377795911</v>
+        <v>5.5196093130845114E-3</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>16.731229871424247</v>
+        <v>5.6459606600624017E-3</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>21.64037537693677</v>
+        <v>5.8077503194922829E-3</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>28.002669727071634</v>
+        <v>6.0103048377993344E-3</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>36.686518217872027</v>
+        <v>6.2772488226424689E-3</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>46.715439171332029</v>
+        <v>6.779565418175538E-3</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>60.545772735901203</v>
+        <v>7.3402998453402576E-3</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.271687939720209</v>
+        <v>7.9644712556795685E-3</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.04809164406645</v>
+        <v>9.150295492905202E-3</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>131.73958598197203</v>
+        <v>1.0528638426049383E-2</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>168.80783531733297</v>
+        <v>1.253387006922474E-2</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>216.86531245231606</v>
+        <v>1.7221167709875331E-2</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.42981596418906</v>
+        <v>2.7241984380474503E-2</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>323.49529624351317</v>
+        <v>4.0286028671126149E-2</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>412.99466915671519</v>
+        <v>6.8118192600583646E-2</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>505.81773993282263</v>
+        <v>0.12650667128412238</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.3411909868671</v>
+        <v>0.27107856397060537</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>724.66474949177439</v>
+        <v>0.54984564875470254</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.2864591641719</v>
+        <v>1.1195844919623461</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>968.73817981339141</v>
+        <v>1.6996189554629162</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1106.6607327252825</v>
+        <v>2.6530358198583626</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1251.6149425365666</v>
+        <v>4.0383807536625707</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.0909994378496</v>
+        <v>5.3541811039557041</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1532.6747870532706</v>
+        <v>6.9059790229593485</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.3863425636102</v>
+        <v>9.1242500906530744</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1793.9865725091177</v>
+        <v>12.047271389524768</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16471,126 +16471,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1774.7130220598133</v>
+        <v>-7.226279059779662</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>669.23879544564181</v>
+        <v>-8.6928087685269162</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>4499365.2396494392</v>
+        <v>5.2266554409719479</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>99.275651086798632</v>
+        <v>3.7248868282809293E-7</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>167.8987337561131</v>
+        <v>2.3077521207513511E-7</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>279.69986479223905</v>
+        <v>1.8334225340986475E-6</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>468.00293019945411</v>
+        <v>1.421459300670754E-6</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>783.75752346727506</v>
+        <v>9.79496514083402E-7</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1345.3136986587699</v>
+        <v>2.96787161908676E-6</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2181.5848739436815</v>
+        <v>1.4894605685130498E-6</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3664.8219278236224</v>
+        <v>4.3520429405808819E-7</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>6125.0483235500269</v>
+        <v>1.0723197803138516E-6</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10411.976223546191</v>
+        <v>2.2588735187617314E-8</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>17352.683822981762</v>
+        <v>2.7945858549596891E-7</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>28493.046804488102</v>
+        <v>1.2488237666162458E-5</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>47022.323224167478</v>
+        <v>3.1642443163901725E-6</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>72577.877249434721</v>
+        <v>5.8556440393629147E-8</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>104629.15094431124</v>
+        <v>8.6230328480976881E-5</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>170530.73286999378</v>
+        <v>7.3539636992234951E-4</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>255781.78794363784</v>
+        <v>3.3070172421801047E-3</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>369950.04755483073</v>
+        <v>2.7250932282597253E-2</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>524818.74617770081</v>
+        <v>0.10813946070490121</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>722643.25192884519</v>
+        <v>0.84159889272493282</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>937964.94567002263</v>
+        <v>2.0948013090963755</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>1222073.2657082004</v>
+        <v>2.1507093866383076</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>1558510.6310077487</v>
+        <v>0.68338453496104246</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1965959.2251914102</v>
+        <v>21.253380640820527</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>2300801.0587068596</v>
+        <v>79.738487978843523</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>2551020.4722545976</v>
+        <v>122.55951082842128</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>3149606.3106686752</v>
+        <v>52.219109049810037</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16599,126 +16599,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>9208.0233308744719</v>
+        <v>-37.493242767008987</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>3700.1003753413188</v>
+        <v>-48.060968978612138</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>6699.1676633006427</v>
+        <v>4.4345933788766185</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.9637167305578611</v>
+        <v>6.1031850932778773E-4</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.957574377795911</v>
+        <v>4.8039068691548871E-4</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.724229871424246</v>
+        <v>1.3540393399375985E-3</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.633375376936769</v>
+        <v>1.1922496805077173E-3</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>27.995669727071633</v>
+        <v>9.8969516220066573E-4</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.678518217872025</v>
+        <v>1.7227511773575312E-3</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>46.707439171332027</v>
+        <v>1.2204345818244621E-3</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>60.5377727359012</v>
+        <v>6.5970015465974252E-4</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>78.262687939720209</v>
+        <v>1.0355287443204325E-3</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>102.03909164406645</v>
+        <v>1.5029549290520097E-4</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>131.72958598197204</v>
+        <v>5.2863842604938295E-4</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>168.79883531733299</v>
+        <v>3.5338700692247385E-3</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>216.84631245231606</v>
+        <v>1.7788322901246684E-3</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>269.40281596418907</v>
+        <v>2.4198438047450324E-4</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>323.46429624351316</v>
+        <v>9.2860286711261494E-3</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>412.95366915671519</v>
+        <v>2.7118192600583645E-2</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>505.74873993282262</v>
+        <v>5.7506671284122374E-2</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>608.23519098686711</v>
+        <v>0.16507856397060539</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>724.44374949177438</v>
+        <v>0.32884564875470257</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>850.08426166401011</v>
+        <v>0.91738699180058836</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>968.48590370228032</v>
+        <v>1.4473428443518057</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>1105.4742266141714</v>
+        <v>1.4665297087472546</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>1248.4032325365665</v>
+        <v>0.82667075366257059</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1402.1266794378496</v>
+        <v>4.6101388960442966</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1516.8391670532706</v>
+        <v>8.929640977040652</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1597.1914325636103</v>
+        <v>11.070659909346926</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1774.7130220598133</v>
+        <v>7.226279059779662</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16839,107 +16839,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>1.1928743038828061E-4</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>1.2125274902546803E-4</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460541</v>
+        <v>1.5757036704707947E-4</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>2.0029173499624617E-4</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187319</v>
+        <v>2.6647608563466155E-4</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>4.9683427927200985E-4</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>5.6568980693061724E-4</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.061010086658733</v>
+        <v>6.3863782902510817E-4</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>1.2010969450853073E-3</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359813</v>
+        <v>1.4064289100758284E-3</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>2.0418169551408259E-3</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>4.7407650462441241E-3</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371499</v>
+        <v>1.0112559330970935E-2</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>1.3134893321197133E-2</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>2.7935510052290717E-2</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>5.8429781940668737E-2</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705488</v>
+        <v>0.14435550446969847</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>0.27780395626332716</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>0.56784207399338738</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>0.57998259324692625</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173127</v>
+        <v>0.95992150589230829</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>1.4099517156246999</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>1.3696999171835627</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>1.6521162950392494</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>2.4016683308555953</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>3.2334306715700958</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16955,111 +16955,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.3150805600049118</v>
+        <v>5.3249750763409405E-3</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.084494904627167</v>
+        <v>5.4442625067292211E-3</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>14.648210877016018</v>
+        <v>5.5655152557546892E-3</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.372654213762072</v>
+        <v>5.7230856228017686E-3</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>25.593726619776547</v>
+        <v>5.9233773577980148E-3</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.176596002395279</v>
+        <v>6.1898534434326764E-3</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.277564227059102</v>
+        <v>6.6866877227046862E-3</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.271327030105788</v>
+        <v>7.2523775296353035E-3</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.332337116764521</v>
+        <v>7.8910153586604116E-3</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>100.61754470742196</v>
+        <v>9.092112303745719E-3</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.02243946478177</v>
+        <v>1.0498541213821547E-2</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>168.95320676938496</v>
+        <v>1.2540358168962373E-2</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>217.92920175716927</v>
+        <v>1.7281123215206497E-2</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.26738808354077</v>
+        <v>2.7393682546177432E-2</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>325.71888635331879</v>
+        <v>4.0528575867374565E-2</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.25788933976145</v>
+        <v>6.8464085919665282E-2</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.42957703638581</v>
+        <v>0.12689386786033402</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>608.73171063344068</v>
+        <v>0.27124937233003249</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>723.61094181073975</v>
+        <v>0.54905332859335965</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.23503744191032</v>
+        <v>1.116895402586747</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.17130336083142</v>
+        <v>1.6968779958336733</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.2336344525627</v>
+        <v>2.6567995017259816</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.4186624418019</v>
+        <v>4.0667512173506815</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1433.8087831687781</v>
+        <v>5.4364511345342441</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.2266759015999</v>
+        <v>7.0885674295734935</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.297205634258</v>
+        <v>9.4902357604290888</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1894.7516360660775</v>
+        <v>12.723666431999185</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17068,126 +17068,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1875.4780856167731</v>
+        <v>-6.5498840173052457</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>768.43095727532148</v>
+        <v>-8.0201774079201194</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>4499923.8205675799</v>
+        <v>5.2244609264656319</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>69.040819752651529</v>
+        <v>4.5565864756091925E-7</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>122.7330493518501</v>
+        <v>3.0884416142688911E-7</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>214.36505594525215</v>
+        <v>2.0577464814725353E-6</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>375.02856312700061</v>
+        <v>1.6305103266955475E-6</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>654.68057911518167</v>
+        <v>1.1591163137019841E-6</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1167.4929527749025</v>
+        <v>3.2766305562525395E-6</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1959.7943168537108</v>
+        <v>1.7247891376946035E-6</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3394.6152766170553</v>
+        <v>5.5893935819421184E-7</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5825.2517886392843</v>
+        <v>1.2298469347270978E-6</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>10122.079268145322</v>
+        <v>8.4846765013433982E-9</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>17164.259294513111</v>
+        <v>2.4854334187866166E-7</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>28542.145000936704</v>
+        <v>1.2534135964538601E-5</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>47484.856029850213</v>
+        <v>2.9545374013020476E-6</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>73571.348127709804</v>
+        <v>1.5498594716474627E-7</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>106072.59931729229</v>
+        <v>9.079375806031295E-5</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>172405.06519298771</v>
+        <v>7.5427601540275677E-4</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>257414.75513069436</v>
+        <v>3.3516999358298156E-3</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>370425.25564406067</v>
+        <v>2.7307355055469714E-2</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>523293.00791294541</v>
+        <v>0.10761898640118281</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>719159.69761966728</v>
+        <v>0.83667225270067525</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>934932.40525754541</v>
+        <v>2.0868746053439806</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>1225553.3443690543</v>
+        <v>2.1617626544857815</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>1580569.321268003</v>
+        <v>0.73109548336853514</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>2027333.0552963857</v>
+        <v>20.50159646285416</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>2425466.9010023004</v>
+        <v>76.510928669804983</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>2762584.0411526705</v>
+        <v>114.59005057533307</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>3517418.049628756</v>
+        <v>42.900980640150706</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,126 +17196,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>9730.8385943206322</v>
+        <v>-33.983795743983578</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>4248.5159150777999</v>
+        <v>-44.342111723496984</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>6684.0017730403761</v>
+        <v>4.4340248294768347</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.3090805600049116</v>
+        <v>6.7502492365905959E-4</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.078494904627167</v>
+        <v>5.5573749327077898E-4</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.641210877016018</v>
+        <v>1.434484744245311E-3</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.36565421376207</v>
+        <v>1.2769143771982315E-3</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.586726619776545</v>
+        <v>1.0766226422019853E-3</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>34.168596002395276</v>
+        <v>1.8101465565673238E-3</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>44.269564227059099</v>
+        <v>1.313312277295314E-3</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>58.263327030105785</v>
+        <v>7.4762247036469671E-4</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>76.32333711676452</v>
+        <v>1.1089846413395894E-3</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>100.60854470742196</v>
+        <v>9.2112303745717911E-5</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>131.01243946478178</v>
+        <v>4.9854121382154719E-4</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>168.94420676938498</v>
+        <v>3.5403581689623723E-3</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>217.91020175716926</v>
+        <v>1.7188767847935021E-3</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>271.24038808354078</v>
+        <v>3.9368254617743251E-4</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>325.68788635331879</v>
+        <v>9.5285758673745655E-3</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>415.21688933976145</v>
+        <v>2.7464085919665281E-2</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>507.36057703638579</v>
+        <v>5.7893867860334014E-2</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>608.62571063344069</v>
+        <v>0.16524937233003251</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>723.38994181073974</v>
+        <v>0.32805332859335967</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>848.03283994174853</v>
+        <v>0.91469790242498927</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>966.91902724972033</v>
+        <v>1.4446018847225628</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>1107.0471283414515</v>
+        <v>1.4702933906148736</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>1257.2069524418018</v>
+        <v>0.85504121735068139</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1423.844463168778</v>
+        <v>4.5278688654657566</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1557.3910559015999</v>
+        <v>8.7470525704265079</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1662.1022956342581</v>
+        <v>10.704674239570911</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1875.4780856167731</v>
+        <v>6.5498840173052457</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,107 +18033,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737858</v>
+        <v>8.884003579792861E-5</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132166009</v>
+        <v>1.0999479110980741E-4</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>1.5315450249563274E-4</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.16987198261298</v>
+        <v>2.0611624040438488E-4</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>2.8204252887683006E-4</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573261</v>
+        <v>5.0743153080080872E-4</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>6.0585905909596796E-4</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398944</v>
+        <v>6.9933972541144813E-4</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>1.2674783653173465E-3</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687767</v>
+        <v>1.487320066458242E-3</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>2.1252832556080473E-3</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>4.8523078615180272E-3</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290303</v>
+        <v>1.0261903448350443E-2</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>1.3182526952176993E-2</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>2.7880467376274372E-2</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>5.8045419351062888E-2</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441114</v>
+        <v>0.14313016096333323</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>0.27531630110232541</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>0.5648755798959203</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>0.5837084195893063</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584695</v>
+        <v>0.97916187692910261</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>1.465345316153801</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>1.4751613826237522</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>1.8346110977542001</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>2.7227675198598886</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485052</v>
+        <v>3.7636266820601669</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18149,111 +18149,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>3.6319318817343054</v>
+        <v>5.1418352634055933E-3</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>5.7578280317080912</v>
+        <v>5.2306752992035219E-3</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>8.8261660449246921</v>
+        <v>5.3406700903133294E-3</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.231959096098409</v>
+        <v>5.4938245928089621E-3</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.401831078711389</v>
+        <v>5.699940833213347E-3</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.206741076289131</v>
+        <v>5.981983362090177E-3</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.099501974862392</v>
+        <v>6.4894148928909857E-3</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.207244383028197</v>
+        <v>7.0952739519869537E-3</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>73.787181622427141</v>
+        <v>7.7946136773984018E-3</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>99.879438167129393</v>
+        <v>9.0620920427157484E-3</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.23457450081716</v>
+        <v>1.054941210917399E-2</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>171.96314712335669</v>
+        <v>1.2674695364782038E-2</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.29225586929334</v>
+        <v>1.7527003226300065E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.05487404958365</v>
+        <v>2.7788906674650508E-2</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>329.77885550242269</v>
+        <v>4.0971433626827501E-2</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>417.79540849871432</v>
+        <v>6.8851901003101873E-2</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.4439492132027</v>
+        <v>0.12689732035416476</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>605.93809767464381</v>
+        <v>0.27002748131749799</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>718.67714302389618</v>
+        <v>0.5453437824198234</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.14209625709884</v>
+        <v>1.1102193623157437</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>965.48480616274935</v>
+        <v>1.69392778190505</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.0415467985963</v>
+        <v>2.6730896588341526</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1282.6630547411698</v>
+        <v>4.1384349749879537</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1480.5718828869758</v>
+        <v>5.6135963576117058</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.1007633192305</v>
+        <v>7.4482074553659059</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.0324518681668</v>
+        <v>10.170974975225795</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.1491216730174</v>
+        <v>13.934601657285961</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18262,126 +18262,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>2055.875571223713</v>
+        <v>-5.3389487920184688</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>942.02053053622774</v>
+        <v>-6.825532339741514</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>4500789.673865309</v>
+        <v>5.2491583151508241</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>13.147382010977282</v>
+        <v>7.3644671513414757E-7</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>33.083525706342975</v>
+        <v>5.9186049525559066E-7</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>77.777689727952648</v>
+        <v>2.7533757491807752E-6</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>174.89954309347607</v>
+        <v>2.2685643572270895E-6</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>376.15947257174912</v>
+        <v>1.690153837146007E-6</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>795.16899828759597</v>
+        <v>4.0723911508808665E-6</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1528.14552665067</v>
+        <v>2.2818673658195525E-6</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2937.5580916912131</v>
+        <v>8.1852922195330529E-7</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5443.2200835118456</v>
+        <v>1.4529561867150065E-6</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9974.1044196944149</v>
+        <v>3.8554217686141885E-9</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>17483.338101922149</v>
+        <v>3.018536657070125E-7</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>29568.228712921002</v>
+        <v>1.3503386023950585E-5</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>49405.400274736348</v>
+        <v>2.1697194953304168E-6</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>76191.387252332817</v>
+        <v>6.2237374130812253E-7</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>108733.64820844663</v>
+        <v>9.9429488574226255E-5</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>174518.74582011069</v>
+        <v>7.7572838948658702E-4</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>257429.33908910002</v>
+        <v>3.3520997041927804E-3</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>367032.53057285916</v>
+        <v>2.6905014627362157E-2</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>516179.22944877314</v>
+        <v>0.10519888919439775</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>710547.67291635531</v>
+        <v>0.82450370214959223</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>931673.83706988674</v>
+        <v>2.0783595399029573</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>1240673.0516649191</v>
+        <v>2.209930644360834</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>1636995.7435599877</v>
+        <v>0.85881917926642315</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>2162686.6040203702</v>
+        <v>18.92879621243647</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>2680637.1495281402</v>
+        <v>70.348689193885392</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>3178509.7006945279</v>
+        <v>100.47927338089505</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>4226624.3643544279</v>
+        <v>28.504374203795468</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,126 +18390,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>10666.823306018889</v>
+        <v>-27.700909627738817</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>5208.26129975819</v>
+        <v>-37.737135001811481</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>6649.6275983089054</v>
+        <v>4.4386288703940959</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.6259318817343056</v>
+        <v>8.581647365944068E-4</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.751828031708091</v>
+        <v>7.6932470079647819E-4</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.8191660449246925</v>
+        <v>1.6593299096866708E-3</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.224959096098409</v>
+        <v>1.5061754071910381E-3</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.394831078711388</v>
+        <v>1.3000591667866532E-3</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>28.198741076289132</v>
+        <v>2.0180166379098231E-3</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>39.091501974862389</v>
+        <v>1.5105851071090144E-3</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>54.199244383028194</v>
+        <v>9.0472604801304646E-4</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>73.778181622427141</v>
+        <v>1.2053863226015992E-3</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>99.870438167129393</v>
+        <v>6.2092042715747309E-5</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>132.22457450081717</v>
+        <v>5.4941210917399015E-4</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>171.95414712335671</v>
+        <v>3.6746953647820366E-3</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>222.27325586929334</v>
+        <v>1.4729967736999347E-3</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>276.02787404958366</v>
+        <v>7.8890667465050801E-4</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>329.74785550242268</v>
+        <v>9.9714336268275014E-3</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>417.75440849871433</v>
+        <v>2.7851901003101871E-2</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>507.37494921320268</v>
+        <v>5.7897320354164755E-2</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>605.83209767464382</v>
+        <v>0.164027481317498</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>718.45614302389617</v>
+        <v>0.32434378241982342</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>842.93989875693705</v>
+        <v>0.90802186215398595</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>965.23253005163826</v>
+        <v>1.4416516707939395</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>1113.8550406874851</v>
+        <v>1.4865835477230447</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>1279.4513447411698</v>
+        <v>0.92672497498795359</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1470.6075628869758</v>
+        <v>4.3507236423882949</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1637.2651433192304</v>
+        <v>8.3874125446340955</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1782.8375418681669</v>
+        <v>10.023935024774206</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>2055.875571223713</v>
+        <v>5.3389487920184688</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,107 +18630,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983961</v>
+        <v>8.746224702286913E-5</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.0432763293987479</v>
+        <v>1.0929757928794786E-4</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>1.5276342187586431E-4</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.163239316733689</v>
+        <v>2.0615902859590345E-4</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>2.8248136081887761E-4</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412965</v>
+        <v>5.0764607813757849E-4</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>6.0711753438231954E-4</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.627528157613796</v>
+        <v>7.0127298594081441E-4</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>1.2693508393729382E-3</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.411887037432166</v>
+        <v>1.4896166887563619E-3</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>2.1275328101680851E-3</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>4.8549505216640646E-3</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547853</v>
+        <v>1.0265341744239025E-2</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>1.3184070755726685E-2</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>2.7880439125652162E-2</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>5.8040167523459515E-2</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634715</v>
+        <v>0.14311194097238619</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>0.27527790504041616</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>0.56483202353580031</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>0.58377674805311797</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791284</v>
+        <v>0.97950005056286193</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>1.4663169224135637</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>1.477027311361816</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>1.8378946415613173</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>2.7286532844498375</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.2441395799699</v>
+        <v>3.7735418773452221</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18746,111 +18746,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.4794068390269204</v>
+        <v>5.1358705995205893E-3</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>5.5747140718253165</v>
+        <v>5.2233328465434584E-3</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>8.6179904012240645</v>
+        <v>5.3326304258314063E-3</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.006143852723438</v>
+        <v>5.4853938477072706E-3</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.169383169457127</v>
+        <v>5.691552876303174E-3</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>27.978448853845606</v>
+        <v>5.9740342371220516E-3</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>38.896483016258571</v>
+        <v>6.4816803152596301E-3</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.03971532000493</v>
+        <v>7.0887978496419497E-3</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>73.667243477618726</v>
+        <v>7.7900708355827641E-3</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>99.813781978906718</v>
+        <v>9.0594216749557022E-3</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.22566901633888</v>
+        <v>1.0549038363712064E-2</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.00517623872045</v>
+        <v>1.2676571173880149E-2</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.37243451304934</v>
+        <v>1.7531521695544214E-2</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.15125708559719</v>
+        <v>2.7796863439783239E-2</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>329.86595348123473</v>
+        <v>4.0980934195509924E-2</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>417.85738697656126</v>
+        <v>6.8861373321162087E-2</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.46151843651603</v>
+        <v>0.1269015408446216</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>605.90609057615075</v>
+        <v>0.27001348181700779</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>718.60745547989245</v>
+        <v>0.54529138685742395</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.06889755275836</v>
+        <v>1.1101234103932243</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.46901514323724</v>
+        <v>1.6939001584463422</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.1713305911501</v>
+        <v>2.6734002090092042</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.0609243794984</v>
+        <v>4.1397171314227679</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.4029198085657</v>
+        <v>5.6167444427845838</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1654.5291930226656</v>
+        <v>7.4546390843459012</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.2170528332679</v>
+        <v>10.183292368795739</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.4611924132378</v>
+        <v>13.956834246140961</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18859,126 +18859,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>2059.1876419639334</v>
+        <v>-5.3167162031634696</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>945.20281748389436</v>
+        <v>-6.8036103010615658</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>4500914.8028663807</v>
+        <v>5.249790653837497</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>12.064555069398985</v>
+        <v>7.4671962077290603E-7</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>31.010576413745294</v>
+        <v>6.032118672582873E-7</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>74.149155689972986</v>
+        <v>2.7801212968631579E-6</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>168.97774090379755</v>
+        <v>2.2940317965629873E-6</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>367.19692873309373</v>
+        <v>1.7120338755104975E-6</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>782.34600908559298</v>
+        <v>4.1045372723536277E-6</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1512.3141113058311</v>
+        <v>2.3052946650700968E-6</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2919.4262604220553</v>
+        <v>8.3028935881713528E-7</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5425.5368322081613</v>
+        <v>1.4639285829073934E-6</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9960.9945058571029</v>
+        <v>3.5309354545410048E-9</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>17480.983133438076</v>
+        <v>3.0144312482762057E-7</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>29582.68464074099</v>
+        <v>1.351717559660645E-5</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>49441.049839748921</v>
+        <v>2.1564285306573392E-6</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>76244.605351072983</v>
+        <v>6.349913416631765E-7</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>108791.09653796827</v>
+        <v>9.9619047415099349E-5</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>174570.53322614759</v>
+        <v>7.7625612334116239E-4</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>257447.16776535026</v>
+        <v>3.3525884321813828E-3</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>366993.74974207248</v>
+        <v>2.6900422217737953E-2</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>516079.09941696347</v>
+        <v>0.10516490358991142</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>710424.27405755385</v>
+        <v>0.82432945846963701</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>931643.35330781154</v>
+        <v>2.0782798938552145</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>1240962.1891718232</v>
+        <v>2.2108540583641934</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>1638014.011547819</v>
+        <v>0.86119723597151421</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>2165131.5530065922</v>
+        <v>18.901413225696942</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>2685316.6262657898</v>
+        <v>70.240841108558229</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>3186304.0504050716</v>
+        <v>100.23248759344003</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>4240253.744816984</v>
+        <v>28.26747118498098</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18987,126 +18987,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>10684.007844741694</v>
+        <v>-27.585556782327807</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>5225.8555892847926</v>
+        <v>-37.615932011040584</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>6648.1565163497153</v>
+        <v>4.4388397816237948</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4734068390269206</v>
+        <v>8.6412940047941086E-4</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.5687140718253163</v>
+        <v>7.7666715345654173E-4</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.6109904012240648</v>
+        <v>1.6673695741685939E-3</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>12.999143852723439</v>
+        <v>1.5146061522927296E-3</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>19.162383169457126</v>
+        <v>1.3084471236968261E-3</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.970448853845607</v>
+        <v>2.0259657628779485E-3</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.888483016258569</v>
+        <v>1.5183196847403701E-3</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>54.031715320004928</v>
+        <v>9.1120215035805051E-4</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>73.658243477618726</v>
+        <v>1.209929164417237E-3</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>99.804781978906718</v>
+        <v>5.9421674955701179E-5</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>132.21566901633889</v>
+        <v>5.490383637120639E-4</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>171.99617623872047</v>
+        <v>3.6765711738801481E-3</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>222.35343451304934</v>
+        <v>1.4684783044557857E-3</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>276.12425708559721</v>
+        <v>7.9686343978323942E-4</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>329.83495348123472</v>
+        <v>9.9809341955099246E-3</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>417.81638697656126</v>
+        <v>2.7861373321162085E-2</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>507.39251843651601</v>
+        <v>5.7901540844621596E-2</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>605.80009057615075</v>
+        <v>0.16401348181700781</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>718.38645547989245</v>
+        <v>0.32429138685742398</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>842.86670005259657</v>
+        <v>0.90792591023146652</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>965.21673903212616</v>
+        <v>1.4416240473352318</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>1113.9848244800389</v>
+        <v>1.4868940978980962</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>1279.8492143794983</v>
+        <v>0.92800713142276781</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1471.4385998085656</v>
+        <v>4.3475755572154169</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1638.6935730226655</v>
+        <v>8.3809809156540993</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1785.0221428332679</v>
+        <v>10.011617631204262</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>2059.1876419639334</v>
+        <v>5.3167162031634696</v>
       </c>
     </row>
   </sheetData>
@@ -19137,115 +19137,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0.52331367847850285</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0.55323595442710227</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.5456430955342495</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.54176460922418679</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.53860522751136797</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>0.54193370675483377</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.60193000286135767</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.63233443976379211</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>0.64144379203756041</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>0.7213955956735002</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>0.77490063361437367</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>0.8554321290788035</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>1.13041049862401</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>1.687062563699731</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>2.2119603942444148</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>3.299591976527668</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>5.3516192794852833</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>9.9868208262476745</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>17.644685379587791</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>31.557362626262631</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>42.523411641575898</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>59.704800353535347</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>82.817820252525266</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>101.3167605050505</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>122.0178553535354</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>152.1574391919192</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>191.44436454545459</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>231.45889994425389</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0.52331367847850285</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0.55323595442710227</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.5456430955342495</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.54176460922418679</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.53860522751136797</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>0.54193370675483377</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.60193000286135767</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.63233443976379211</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>0.64144379203756041</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>0.7213955956735002</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>0.77490063361437367</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>0.8554321290788035</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>1.13041049862401</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>1.687062563699731</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>2.2119603942444148</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>3.299591976527668</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>5.3516192794852833</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>9.9868208262476745</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>17.644685379587791</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>31.557362626262631</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>42.523411641575898</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>59.704800353535347</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>82.817820252525266</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>101.3167605050505</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>122.0178553535354</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>152.1574391919192</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>191.44436454545459</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>231.45889994425389</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
